--- a/BalanceSheet/EXPD_bal.xlsx
+++ b/BalanceSheet/EXPD_bal.xlsx
@@ -1540,19 +1540,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>228555000.0</v>
+        <v>1137000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>94263000.0</v>
+        <v>889000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>106760000.0</v>
+        <v>756000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>917000.0</v>
+        <v>701000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-40788000.0</v>
+        <v>736000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>744002000.0</v>
@@ -2586,19 +2586,19 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>5499000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-1276000.0</v>
+        <v>-3000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>9287000.0</v>
+        <v>-5000000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-5139000.0</v>
+        <v>-10000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4499000.0</v>
+        <v>-8000000.0</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
